--- a/김신혁/레퍼런스/공공데이터포털/제주도 내국인 관광객 현황 2015-2018.xlsx
+++ b/김신혁/레퍼런스/공공데이터포털/제주도 내국인 관광객 현황 2015-2018.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinxi\OneDrive\Desktop\김신혁\레퍼런스\공공데이터포털\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6-project\김신혁\레퍼런스\공공데이터포털\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE88B00-937D-4623-B539-6E785E1DEC91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D320C8-7F20-41A5-955D-BED82F22D789}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="1110" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -224,6 +219,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,11 +258,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3681,473 +3683,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2018</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>년 내국인 제주</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
-              <a:t>방문</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t> 목적</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-2C82-4C1D-9E52-A430ED3F481A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-2C82-4C1D-9E52-A430ED3F481A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-2C82-4C1D-9E52-A430ED3F481A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-2C82-4C1D-9E52-A430ED3F481A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-2C82-4C1D-9E52-A430ED3F481A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-2C82-4C1D-9E52-A430ED3F481A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$M$13:$M$18</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>레저스포츠</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>회의및업무</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>휴양및관람</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>친지방문</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>교육여행</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>기타방문</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$13:$N$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1591117</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>866410</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9517324</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>677493</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>281606</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>152179</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A9A7-46B8-93BB-D4D1167C19B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="78000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:pattFill prst="dkDnDiag">
-      <a:fgClr>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:fgClr>
-      <a:bgClr>
-        <a:schemeClr val="lt1"/>
-      </a:bgClr>
-    </a:pattFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -7524,6 +7059,473 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2018</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>년 내국인 제주</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+              <a:t>방문</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t> 목적</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2018 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D453-4508-965A-81AC47BFC270}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D453-4508-965A-81AC47BFC270}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D453-4508-965A-81AC47BFC270}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D453-4508-965A-81AC47BFC270}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D453-4508-965A-81AC47BFC270}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D453-4508-965A-81AC47BFC270}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>레저스포츠</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>회의및업무</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>휴양및관람</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>친지방문</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>교육여행</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>기타방문</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1591117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>866410</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9517324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>677493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>281606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D453-4508-965A-81AC47BFC270}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -8176,6 +8178,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8706,522 +9224,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9262,52 +9264,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9ABB36-6679-4442-9E42-9086D42692CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9326,7 +9292,50 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA25848-E27A-4A71-8B9B-35F16D45695A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9598,9 +9607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11168,62 +11179,79 @@
         <v>613323</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="N12" s="1">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9698D454-A54E-46EE-B86F-D6B3E68161B1}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="M13" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N13">
-        <f>SUM(AM5:AX5)</f>
+      <c r="B2" s="3">
+        <f>SUM(Sheet1!AM5:AX5)</f>
         <v>1591117</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="M14" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N14">
-        <f>SUM(AM6:AX6)</f>
+      <c r="B3" s="3">
+        <f>SUM(Sheet1!AM6:AX6)</f>
         <v>866410</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="M15" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N15">
-        <f t="shared" ref="N15:N18" si="1">SUM(AM7:AX7)</f>
+      <c r="B4" s="3">
+        <f>SUM(Sheet1!AM7:AX7)</f>
         <v>9517324</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="M16" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
+      <c r="B5" s="3">
+        <f>SUM(Sheet1!AM8:AX8)</f>
         <v>677493</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M17" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
+      <c r="B6" s="3">
+        <f>SUM(Sheet1!AM9:AX9)</f>
         <v>281606</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M18" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
+      <c r="B7" s="3">
+        <f>SUM(Sheet1!AM10:AX10)</f>
         <v>152179</v>
       </c>
     </row>
@@ -11231,7 +11259,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="N13:N18" formulaRange="1"/>
+    <ignoredError sqref="B1:B7" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
